--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s2_res_fix.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s2_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.8168650130996</v>
+        <v>614.3672915212159</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.63686501310217</v>
+        <v>58.36729152121585</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.132299474826761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.132299474826761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>554.1799999999976</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -929,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31.76867181805832</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.72550364349533</v>
+        <v>3.132299474826759</v>
       </c>
     </row>
     <row r="6">
@@ -969,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36.11932185785321</v>
+        <v>42.72978832722616</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.85780311832209</v>
+        <v>40.32314874444808</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41.6086347173128</v>
+        <v>36.11932185785321</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,76 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>95.88999999999986</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>81.38499999999986</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>85.82000000000001</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>85.29500000000058</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>94.67000000000058</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.2650000000006</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.615</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.685</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>116.875</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>115.92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>137.0599999999992</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>128.1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>123.6799999999994</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>132.9449999999999</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>139.9899999999999</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.235</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.525</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.78500000000073</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -1473,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>106.1700000000004</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1484,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.49</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -1495,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>102.57</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -1506,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>110.05</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -1517,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>107.6750000000004</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -1528,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>137.0599999999992</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>128.1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39">
@@ -1550,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>123.6799999999994</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
@@ -1561,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>132.9449999999999</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -1572,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>139.9899999999999</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
@@ -1583,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>111.2650000000006</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -1594,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>115.615</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -1605,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>116.685</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45">
@@ -1616,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>116.875</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -1627,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>115.92</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.170000000000002</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1685,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.49000000000001</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.570000000000007</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.05</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1718,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.675000000000011</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1729,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>37.05999999999921</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1740,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -1751,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>23.67999999999903</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>32.94499999999992</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1773,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>39.98999999999993</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1784,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>11.26500000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1806,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>16.685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1817,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>16.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1828,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>15.92</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2224,7 +2099,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2235,7 +2110,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2246,7 +2121,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2257,7 +2132,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2268,7 +2143,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2279,67 +2154,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
